--- a/Bonus/Animals list.xlsx
+++ b/Bonus/Animals list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIGNOIC\Dropbox\Files\Incremental\Ark\Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D06B53-B773-43B4-8044-7206C43010FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F32E4-F03B-4760-A150-E7A7BBB3149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45570" yWindow="-2670" windowWidth="25440" windowHeight="15390" xr2:uid="{2BE4FB4E-0A2F-478A-A0A6-8CCAD09811D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BE4FB4E-0A2F-478A-A0A6-8CCAD09811D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$D$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>Fox</t>
   </si>
@@ -49,21 +50,6 @@
     <t>Small</t>
   </si>
   <si>
-    <t>aniTiers</t>
-  </si>
-  <si>
-    <t>aniAttract</t>
-  </si>
-  <si>
-    <t>aniFood</t>
-  </si>
-  <si>
-    <t>aniName</t>
-  </si>
-  <si>
-    <t>aniSize</t>
-  </si>
-  <si>
     <t xml:space="preserve">	1</t>
   </si>
   <si>
@@ -164,6 +150,48 @@
   </si>
   <si>
     <t>Goose</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Attract</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>MaxAge</t>
+  </si>
+  <si>
+    <t>HerdMulti</t>
+  </si>
+  <si>
+    <t>MaxHerd</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -179,12 +207,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,13 +233,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,47 +558,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A37A77-5C91-4BD5-BB91-255DA1CAB053}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -569,19 +622,31 @@
       <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -589,11 +654,23 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,196 +686,309 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D12" xr:uid="{63A37A77-5C91-4BD5-BB91-255DA1CAB053}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
-      <sortCondition descending="1" ref="D1:D12"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -815,98 +1005,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,63 +1104,63 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
